--- a/app/Licenciatura_em_Desenvolvimento_e_Educacao_de_Infancia.xlsx
+++ b/app/Licenciatura_em_Desenvolvimento_e_Educacao_de_Infancia.xlsx
@@ -13,41 +13,39 @@
     <sheet name="20151093" sheetId="3" r:id="rId6"/>
     <sheet name="20151069" sheetId="4" r:id="rId7"/>
     <sheet name="20151081" sheetId="5" r:id="rId8"/>
-    <sheet name="20154815" sheetId="6" r:id="rId9"/>
-    <sheet name="20151095" sheetId="7" r:id="rId10"/>
-    <sheet name="20151094" sheetId="8" r:id="rId11"/>
-    <sheet name="20151090" sheetId="9" r:id="rId12"/>
-    <sheet name="20151070" sheetId="10" r:id="rId13"/>
-    <sheet name="20151096" sheetId="11" r:id="rId14"/>
-    <sheet name="20151075" sheetId="12" r:id="rId15"/>
-    <sheet name="20151086" sheetId="13" r:id="rId16"/>
-    <sheet name="20151072" sheetId="14" r:id="rId17"/>
-    <sheet name="20154405" sheetId="15" r:id="rId18"/>
-    <sheet name="20151082" sheetId="16" r:id="rId19"/>
-    <sheet name="20151092" sheetId="17" r:id="rId20"/>
-    <sheet name="20151087" sheetId="18" r:id="rId21"/>
-    <sheet name="20151097" sheetId="19" r:id="rId22"/>
-    <sheet name="20151088" sheetId="20" r:id="rId23"/>
-    <sheet name="20151089" sheetId="21" r:id="rId24"/>
-    <sheet name="20151074" sheetId="22" r:id="rId25"/>
-    <sheet name="20151091" sheetId="23" r:id="rId26"/>
-    <sheet name="20151078" sheetId="24" r:id="rId27"/>
-    <sheet name="20151064" sheetId="25" r:id="rId28"/>
-    <sheet name="20151098" sheetId="26" r:id="rId29"/>
-    <sheet name="20151065" sheetId="27" r:id="rId30"/>
-    <sheet name="20151068" sheetId="28" r:id="rId31"/>
-    <sheet name="20151077" sheetId="29" r:id="rId32"/>
-    <sheet name="20151076" sheetId="30" r:id="rId33"/>
-    <sheet name="20151067" sheetId="31" r:id="rId34"/>
-    <sheet name="20151084" sheetId="32" r:id="rId35"/>
-    <sheet name="20151071" sheetId="33" r:id="rId36"/>
-    <sheet name="20151079" sheetId="34" r:id="rId37"/>
-    <sheet name="20151083" sheetId="35" r:id="rId38"/>
-    <sheet name="20151085" sheetId="36" r:id="rId39"/>
-    <sheet name="20151073" sheetId="37" r:id="rId40"/>
-    <sheet name="20151080" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet2" sheetId="39" r:id="rId42"/>
-    <sheet name="Sheet3" sheetId="40" r:id="rId43"/>
+    <sheet name="20151095" sheetId="6" r:id="rId9"/>
+    <sheet name="20151094" sheetId="7" r:id="rId10"/>
+    <sheet name="20151090" sheetId="8" r:id="rId11"/>
+    <sheet name="20151070" sheetId="9" r:id="rId12"/>
+    <sheet name="20151096" sheetId="10" r:id="rId13"/>
+    <sheet name="20151075" sheetId="11" r:id="rId14"/>
+    <sheet name="20151086" sheetId="12" r:id="rId15"/>
+    <sheet name="20151072" sheetId="13" r:id="rId16"/>
+    <sheet name="20151082" sheetId="14" r:id="rId17"/>
+    <sheet name="20151092" sheetId="15" r:id="rId18"/>
+    <sheet name="20151087" sheetId="16" r:id="rId19"/>
+    <sheet name="20151097" sheetId="17" r:id="rId20"/>
+    <sheet name="20151088" sheetId="18" r:id="rId21"/>
+    <sheet name="20151089" sheetId="19" r:id="rId22"/>
+    <sheet name="20151074" sheetId="20" r:id="rId23"/>
+    <sheet name="20151091" sheetId="21" r:id="rId24"/>
+    <sheet name="20151078" sheetId="22" r:id="rId25"/>
+    <sheet name="20151064" sheetId="23" r:id="rId26"/>
+    <sheet name="20151098" sheetId="24" r:id="rId27"/>
+    <sheet name="20151065" sheetId="25" r:id="rId28"/>
+    <sheet name="20151068" sheetId="26" r:id="rId29"/>
+    <sheet name="20151077" sheetId="27" r:id="rId30"/>
+    <sheet name="20151076" sheetId="28" r:id="rId31"/>
+    <sheet name="20151067" sheetId="29" r:id="rId32"/>
+    <sheet name="20151084" sheetId="30" r:id="rId33"/>
+    <sheet name="20151071" sheetId="31" r:id="rId34"/>
+    <sheet name="20151079" sheetId="32" r:id="rId35"/>
+    <sheet name="20151083" sheetId="33" r:id="rId36"/>
+    <sheet name="20151085" sheetId="34" r:id="rId37"/>
+    <sheet name="20151073" sheetId="35" r:id="rId38"/>
+    <sheet name="20151080" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -204,9 +202,6 @@
     <t>Percina Eduarda Boque</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -270,9 +265,6 @@
     <t>FÁtima Fernando</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>040100445001C</t>
   </si>
   <si>
@@ -306,15 +298,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
-    <t>Géssica Emídio Baptista</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Nhamutocue</t>
   </si>
   <si>
@@ -375,9 +358,6 @@
     <t>Catarina P. Maute</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>081402234891M</t>
   </si>
   <si>
@@ -426,9 +406,6 @@
     <t>Zulmira Fernando Tsucana</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102511353B</t>
   </si>
   <si>
@@ -450,9 +427,6 @@
     <t>Rita Madeira</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>041400566931B</t>
   </si>
   <si>
@@ -477,9 +451,6 @@
     <t>Veronica</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -507,9 +478,6 @@
     <t>Rosa Mandlate</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100431700A</t>
   </si>
   <si>
@@ -519,12 +487,6 @@
     <t>Escola Secundaria da Zona-Verde</t>
   </si>
   <si>
-    <t>Muchanga</t>
-  </si>
-  <si>
-    <t>Isabel Olimpia Tembe</t>
-  </si>
-  <si>
     <t>Mondlane</t>
   </si>
   <si>
@@ -1024,9 +986,6 @@
   </si>
   <si>
     <t>Lucia Bamusse</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Katembe</t>
   </si>
   <si>
     <t>11061528129P</t>
@@ -2268,7 +2227,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151070</v>
+        <v>20151096</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2292,7 +2251,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2308,7 +2267,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2324,7 +2283,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2340,7 +2299,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2356,7 +2315,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2371,9 +2330,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2381,7 +2338,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2392,7 +2349,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2401,7 +2358,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2413,7 +2370,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2421,7 +2378,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2517,7 +2474,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2544,7 +2501,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2560,7 +2517,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2863,7 +2820,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151096</v>
+        <v>20151075</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2887,7 +2844,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2903,7 +2860,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2919,7 +2876,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2935,7 +2892,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2951,7 +2908,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2966,9 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2976,7 +2931,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2987,7 +2942,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2996,7 +2951,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3008,7 +2963,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3139,7 +3094,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3155,7 +3110,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3458,7 +3413,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151075</v>
+        <v>20151086</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3482,7 +3437,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3498,7 +3453,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3514,7 +3469,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3530,7 +3485,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3546,7 +3501,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3561,9 +3516,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3571,7 +3524,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3582,7 +3535,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3591,7 +3544,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3603,7 +3556,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3611,7 +3564,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3707,7 +3660,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3734,7 +3687,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3750,7 +3703,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4053,7 +4006,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151086</v>
+        <v>20151072</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4077,7 +4030,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4093,7 +4046,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4109,7 +4062,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4125,7 +4078,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4141,7 +4094,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4156,9 +4109,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4166,7 +4117,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4177,7 +4128,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4186,7 +4137,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4198,7 +4149,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4206,7 +4157,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4302,7 +4253,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4329,7 +4280,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4345,7 +4296,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4648,7 +4599,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151072</v>
+        <v>20151082</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4672,7 +4623,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4688,7 +4639,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4704,7 +4655,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4720,7 +4671,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4736,7 +4687,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4751,9 +4702,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4761,7 +4710,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4772,7 +4721,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4781,7 +4730,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4793,7 +4742,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4801,7 +4750,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4897,7 +4846,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4924,7 +4873,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4940,7 +4889,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5191,7 +5140,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5241,7 +5192,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154405</v>
+        <v>20151092</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5265,7 +5216,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5281,7 +5232,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5296,7 +5247,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5310,7 +5263,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5324,7 +5279,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5345,7 +5302,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5354,14 +5313,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5371,13 +5334,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5472,7 +5439,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5498,7 +5465,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5512,7 +5481,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5814,7 +5785,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151082</v>
+        <v>20151087</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5838,7 +5809,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5854,7 +5825,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5870,7 +5841,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5886,7 +5857,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5902,7 +5873,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5917,9 +5888,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5927,7 +5896,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5938,7 +5907,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5947,7 +5916,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5959,7 +5928,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5967,7 +5936,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6063,7 +6032,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6090,7 +6059,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6106,7 +6075,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6409,7 +6378,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151092</v>
+        <v>20151097</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6433,7 +6402,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6449,7 +6418,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6465,7 +6434,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6481,7 +6450,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6497,7 +6466,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6512,9 +6481,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6522,7 +6489,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6533,7 +6500,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6542,7 +6509,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6554,7 +6521,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6562,7 +6529,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6658,7 +6625,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6685,7 +6652,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6701,7 +6668,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7004,7 +6971,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151087</v>
+        <v>20151088</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7028,7 +6995,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7044,7 +7011,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7060,7 +7027,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7076,7 +7043,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7092,7 +7059,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7107,9 +7074,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7117,7 +7082,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7128,7 +7093,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7137,7 +7102,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7149,7 +7114,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7157,7 +7122,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7253,7 +7218,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7280,7 +7245,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7296,7 +7261,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7599,7 +7564,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151097</v>
+        <v>20151089</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7623,7 +7588,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7639,7 +7604,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7655,7 +7620,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7671,7 +7636,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7687,7 +7652,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7702,9 +7667,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7712,7 +7675,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7723,7 +7686,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7732,7 +7695,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7744,7 +7707,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7752,7 +7715,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7848,7 +7811,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7875,7 +7838,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7891,7 +7854,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8297,9 +8260,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8307,7 +8268,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8318,7 +8279,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8327,7 +8288,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8339,7 +8300,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8347,7 +8308,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8443,7 +8404,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8486,7 +8447,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8789,7 +8750,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151088</v>
+        <v>20151074</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8813,7 +8774,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8829,7 +8790,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8845,7 +8806,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8861,7 +8822,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8877,7 +8838,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8892,9 +8853,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8902,7 +8861,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8913,7 +8872,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8922,7 +8881,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8934,7 +8893,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8942,7 +8901,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9038,7 +8997,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9065,7 +9024,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9081,7 +9040,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9384,7 +9343,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151089</v>
+        <v>20151091</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9408,7 +9367,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9424,7 +9383,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9440,7 +9399,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9456,7 +9415,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9472,7 +9431,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9487,9 +9446,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9497,7 +9454,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9508,7 +9465,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9517,7 +9474,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9529,7 +9486,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9537,7 +9494,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9633,7 +9590,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9660,7 +9617,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9676,7 +9633,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9979,7 +9936,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151074</v>
+        <v>20151078</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10003,7 +9960,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10019,7 +9976,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10035,7 +9992,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10051,7 +10008,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10067,7 +10024,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10082,9 +10039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10092,7 +10047,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10103,7 +10058,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10112,7 +10067,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10124,7 +10079,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10132,7 +10087,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10228,7 +10183,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10255,7 +10210,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10271,7 +10226,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10574,7 +10529,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151091</v>
+        <v>20151064</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10598,7 +10553,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10614,7 +10569,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10630,7 +10585,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10646,7 +10601,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10662,7 +10617,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10677,9 +10632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10687,7 +10640,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10698,7 +10651,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10707,7 +10660,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10719,7 +10672,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10727,7 +10680,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10823,7 +10776,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10850,7 +10803,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10866,7 +10819,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11169,7 +11122,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151078</v>
+        <v>20151098</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11193,7 +11146,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11209,7 +11162,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11225,7 +11178,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11241,7 +11194,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11257,7 +11210,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11272,9 +11225,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11282,7 +11233,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11293,7 +11244,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11302,7 +11253,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11314,7 +11265,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11322,7 +11273,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11418,7 +11369,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11445,7 +11396,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11461,7 +11412,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11764,7 +11715,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151064</v>
+        <v>20151065</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11788,7 +11739,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11804,7 +11755,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11820,7 +11771,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11836,7 +11787,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11852,7 +11803,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11867,9 +11818,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11877,7 +11826,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11888,7 +11837,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11897,7 +11846,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11909,7 +11858,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11917,7 +11866,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12013,7 +11962,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12040,7 +11989,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12056,7 +12005,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12359,7 +12308,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151098</v>
+        <v>20151068</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12383,7 +12332,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12399,7 +12348,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12415,7 +12364,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12431,7 +12380,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12447,7 +12396,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12462,9 +12411,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12472,7 +12419,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12483,7 +12430,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12492,7 +12439,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12504,7 +12451,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12512,7 +12459,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12608,7 +12555,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12635,7 +12582,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12651,7 +12598,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12954,7 +12901,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151065</v>
+        <v>20151077</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12978,7 +12925,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12994,7 +12941,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13010,7 +12957,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13026,7 +12973,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13042,7 +12989,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13057,9 +13004,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13067,7 +13012,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13078,7 +13023,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13087,7 +13032,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13099,7 +13044,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13107,7 +13052,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13203,7 +13148,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13230,7 +13175,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13246,7 +13191,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13549,7 +13494,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151068</v>
+        <v>20151076</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13573,7 +13518,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13589,7 +13534,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13605,7 +13550,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13621,7 +13566,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13637,7 +13582,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13652,9 +13597,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13662,7 +13605,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13673,7 +13616,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13682,7 +13625,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13694,7 +13637,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13702,7 +13645,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13798,7 +13741,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13825,7 +13768,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13841,7 +13784,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14144,7 +14087,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151077</v>
+        <v>20151067</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14168,7 +14111,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14184,7 +14127,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14200,7 +14143,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14216,7 +14159,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14232,7 +14175,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14247,9 +14190,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14257,7 +14198,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14268,7 +14209,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14277,7 +14218,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14289,15 +14230,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>257</v>
+      <c r="H17" s="20">
+        <v>401001995831</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14393,7 +14334,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14420,7 +14361,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14436,7 +14377,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14763,7 +14704,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14779,7 +14720,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14795,7 +14736,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14811,7 +14752,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14827,7 +14768,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14842,9 +14783,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14852,7 +14791,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14863,7 +14802,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14872,7 +14811,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14884,7 +14823,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14892,7 +14831,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14988,7 +14927,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15031,7 +14970,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15334,7 +15273,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151076</v>
+        <v>20151084</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15358,7 +15297,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15374,7 +15313,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15390,7 +15329,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15406,7 +15345,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15422,7 +15361,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15437,9 +15376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15447,7 +15384,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15458,7 +15395,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15467,7 +15404,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15479,7 +15416,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15487,7 +15424,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15583,7 +15520,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15610,7 +15547,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15626,7 +15563,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15929,7 +15866,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151067</v>
+        <v>20151071</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15953,7 +15890,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15969,7 +15906,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15985,7 +15922,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16001,7 +15938,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16017,7 +15954,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16032,9 +15969,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16042,7 +15977,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16053,7 +15988,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16062,7 +15997,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16074,15 +16009,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>401001995831</v>
+      <c r="H17" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16178,7 +16113,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16205,7 +16140,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16221,7 +16156,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16524,7 +16459,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151084</v>
+        <v>20151079</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16548,7 +16483,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16564,7 +16499,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16580,7 +16515,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16596,7 +16531,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16612,7 +16547,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16627,9 +16562,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16637,7 +16570,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16648,7 +16581,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16657,7 +16590,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16669,7 +16602,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16677,7 +16610,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16773,7 +16706,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16800,7 +16733,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16816,7 +16749,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17119,7 +17052,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151071</v>
+        <v>20151083</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17143,7 +17076,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17159,7 +17092,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17175,7 +17108,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17191,7 +17124,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17207,7 +17140,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17222,9 +17155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17232,7 +17163,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17243,7 +17174,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17252,7 +17183,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17264,7 +17195,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17272,7 +17203,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17368,7 +17299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17395,7 +17326,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17411,7 +17342,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17714,7 +17645,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151079</v>
+        <v>20151085</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17738,7 +17669,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17754,7 +17685,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17770,7 +17701,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17786,7 +17717,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17802,7 +17733,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17817,9 +17748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17827,7 +17756,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17838,7 +17767,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17847,7 +17776,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17859,7 +17788,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17867,7 +17796,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17963,7 +17892,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17990,7 +17919,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18006,7 +17935,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18309,7 +18238,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151083</v>
+        <v>20151073</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18333,7 +18262,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18349,7 +18278,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18365,7 +18294,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18381,7 +18310,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18397,7 +18326,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18412,9 +18341,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18422,7 +18349,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18433,7 +18360,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18442,7 +18369,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18454,7 +18381,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18462,7 +18389,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18558,7 +18485,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18585,7 +18512,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18601,7 +18528,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18904,7 +18831,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151085</v>
+        <v>20151080</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18928,7 +18855,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18944,7 +18871,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18960,7 +18887,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18976,7 +18903,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18992,7 +18919,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19007,9 +18934,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19017,7 +18942,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19028,7 +18953,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19037,7 +18962,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19049,7 +18974,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19057,7 +18982,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19153,7 +19078,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19180,7 +19105,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19196,7 +19121,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19399,6 +19324,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19499,7 +19480,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151073</v>
+        <v>20151069</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19523,7 +19504,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19539,7 +19520,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19555,7 +19536,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19571,7 +19552,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19587,7 +19568,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19602,9 +19583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19612,7 +19591,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19623,7 +19602,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19632,7 +19611,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19644,7 +19623,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19652,7 +19631,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19748,7 +19727,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19791,7 +19770,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19989,1252 +19968,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151080</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151069</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -21364,7 +20097,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21380,7 +20113,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21396,7 +20129,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21412,7 +20145,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21428,7 +20161,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21443,9 +20176,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21453,7 +20184,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21464,7 +20195,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21473,7 +20204,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21485,7 +20216,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21493,7 +20224,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21589,7 +20320,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21632,7 +20363,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21883,7 +20614,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -21933,7 +20666,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154815</v>
+        <v>20151095</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21957,7 +20690,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21973,7 +20706,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21988,7 +20721,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -22002,7 +20737,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -22016,7 +20753,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -22037,7 +20776,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -22046,14 +20787,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -22063,13 +20808,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -22164,7 +20913,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22190,7 +20939,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -22204,7 +20955,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -22506,7 +21259,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151095</v>
+        <v>20151094</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22530,7 +21283,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22546,7 +21299,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22562,7 +21315,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22578,7 +21331,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22594,7 +21347,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22609,9 +21362,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22619,7 +21370,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22630,7 +21381,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22639,7 +21390,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22651,7 +21402,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22659,7 +21410,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22755,7 +21506,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22782,7 +21533,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22798,7 +21549,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23101,7 +21852,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151094</v>
+        <v>20151090</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23125,7 +21876,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23141,7 +21892,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23157,7 +21908,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23173,7 +21924,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23189,7 +21940,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23204,9 +21955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23214,7 +21963,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23225,7 +21974,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23234,7 +21983,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23246,7 +21995,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23254,7 +22003,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23350,7 +22099,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23377,7 +22126,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23393,7 +22142,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23696,7 +22445,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151090</v>
+        <v>20151070</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23720,7 +22469,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23736,7 +22485,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23752,7 +22501,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23768,7 +22517,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23784,7 +22533,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23799,9 +22548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23809,7 +22556,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23820,7 +22567,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23829,7 +22576,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23841,7 +22588,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23849,7 +22596,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23945,7 +22692,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23972,7 +22719,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23988,7 +22735,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
